--- a/平时作业/代码/backend/test/Computer_sales_system.xlsx
+++ b/平时作业/代码/backend/test/Computer_sales_system.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temporary files\课程\大三下\2022-2023第二学期软件测试课程资料\project\平时作业\代码\backend\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0F3E4-EC89-402D-925D-7D70972FD0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25580" windowHeight="10480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -41,9 +45,6 @@
     <t>peripherals</t>
   </si>
   <si>
-    <t>gross_salesexpect</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
@@ -114,19 +115,20 @@
   </si>
   <si>
     <t>TSB6</t>
+  </si>
+  <si>
+    <t>gross_sales</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,352 +158,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -524,251 +203,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,65 +222,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1101,21 +494,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="22.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,22 +525,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="14.75" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1161,12 +561,12 @@
         <v>650</v>
       </c>
       <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="14.75" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1184,12 +584,12 @@
         <v>655</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>69</v>
@@ -1207,12 +607,12 @@
         <v>990</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>70</v>
@@ -1230,12 +630,12 @@
         <v>995</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -1253,12 +653,12 @@
         <v>586</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>35</v>
@@ -1276,12 +676,12 @@
         <v>592</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>35</v>
@@ -1299,12 +699,12 @@
         <v>1054</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>35</v>
@@ -1322,12 +722,12 @@
         <v>1060</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>35</v>
@@ -1345,12 +745,12 @@
         <v>424</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>35</v>
@@ -1368,12 +768,12 @@
         <v>433</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>35</v>
@@ -1391,12 +791,12 @@
         <v>1216</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>35</v>
@@ -1414,12 +814,12 @@
         <v>1225</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="14.75" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>35</v>
@@ -1437,12 +837,12 @@
         <v>820</v>
       </c>
       <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="14.75" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1460,12 +860,12 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="14.75" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>71</v>
@@ -1483,12 +883,12 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="14.75" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>35</v>
@@ -1506,12 +906,12 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" ht="14.75" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>35</v>
@@ -1529,12 +929,12 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="14.75" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>35</v>
@@ -1552,12 +952,12 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" ht="14.75" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>35</v>
@@ -1575,11 +975,11 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/平时作业/代码/backend/test/Computer_sales_system.xlsx
+++ b/平时作业/代码/backend/test/Computer_sales_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temporary files\课程\大三下\2022-2023第二学期软件测试课程资料\project\平时作业\代码\backend\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\SoftwareTesting\平时作业\代码\backend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0F3E4-EC89-402D-925D-7D70972FD0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE4F2B-73A2-48BD-A311-4D7F3D6C15A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,25 @@
   </si>
   <si>
     <t>expect</t>
+  </si>
+  <si>
+    <t>TSA14</t>
+  </si>
+  <si>
+    <t>TSA15</t>
+  </si>
+  <si>
+    <t>TSA16</t>
+  </si>
+  <si>
+    <t>TSA17</t>
+  </si>
+  <si>
+    <t>TSA19</t>
+  </si>
+  <si>
+    <t>考虑输出变量边界值的补充测试用例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,16 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="22.9140625" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -817,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -837,144 +857,282 @@
         <v>820</v>
       </c>
       <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>975</v>
+      </c>
+      <c r="F15" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1025</v>
+      </c>
+      <c r="F17" s="2">
+        <v>153.75</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1775</v>
+      </c>
+      <c r="F18" s="2">
+        <v>266.25</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F19" s="2">
+        <v>270</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1825</v>
+      </c>
+      <c r="F20" s="2">
+        <v>365</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D23" s="2">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F23" s="2">
         <v>-1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>71</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2">
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2">
         <v>-1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F24" s="2">
         <v>-1</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="E25" s="2">
         <v>-1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F25" s="2">
         <v>-1</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2">
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2">
         <v>-1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F26" s="2">
         <v>-1</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>91</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="I26" t="s">
         <v>21</v>
       </c>
     </row>
